--- a/CodeDataCSV/new_big_file.xlsx
+++ b/CodeDataCSV/new_big_file.xlsx
@@ -1077,16 +1077,8 @@
       <c r="AQ8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Path CSV</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\GetDataFromColumnAndFraming.panel\TestDataToExcel.pushbutton\Data_CSV\Left_Genneral_All.csv</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="4" t="n"/>
       <c r="C9" s="4" t="n"/>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
@@ -3092,7 +3084,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\GetDataFromColumnAndFraming.panel\TestDataToExcel.pushbutton\Data_CSV\Right_Genneral_All.csv</t>
+          <t>C:/Users/nhuan.nguyen/AppData/Roaming/pyRevit/Extensions/PySteelFraming.extension/PySteelFraming.tab/GetDataFromColumnAndFraming.panel/TestDataToExcel.pushbutton/Data_CSV\Right_Genneral_All.csv</t>
         </is>
       </c>
       <c r="C49" s="4" t="n"/>
